--- a/dosroch/Задание_9.xlsx
+++ b/dosroch/Задание_9.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Новая папка\РТТ\1 ЕГЭ\Информатика\2021\20 вариантов\Информатика-ЕГЭ\9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Нечётные варианты" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -138,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -173,7 +168,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -350,7 +345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -360,13 +355,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -439,8 +434,16 @@
       <c r="Y1" s="1">
         <v>0.95833333333333304</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="3">
+        <f>MAX(B2:Y92)</f>
+        <v>25.2</v>
+      </c>
+      <c r="AA1">
+        <f>LARGE(B2:Y92,2)</f>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43831</v>
       </c>
@@ -516,8 +519,12 @@
       <c r="Y2" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3">
+        <f>Z1-AA1</f>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43832</v>
       </c>
@@ -594,7 +601,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43833</v>
       </c>
@@ -671,7 +678,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43834</v>
       </c>
@@ -748,7 +755,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43835</v>
       </c>
@@ -825,7 +832,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43836</v>
       </c>
@@ -902,7 +909,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43837</v>
       </c>
@@ -979,7 +986,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43838</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43839</v>
       </c>
@@ -1133,7 +1140,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43840</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43841</v>
       </c>
@@ -1287,7 +1294,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43842</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43843</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43844</v>
       </c>
@@ -1518,7 +1525,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43845</v>
       </c>
